--- a/dialogue.xlsx
+++ b/dialogue.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/99ccd577c8ac53ff/문서/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="151" documentId="8_{9C52D8B5-26B1-41EA-82C5-0CD20B54A85C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{785DB377-CF16-4790-8404-54EBF4843994}"/>
+  <xr:revisionPtr revIDLastSave="156" documentId="8_{9C52D8B5-26B1-41EA-82C5-0CD20B54A85C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EB07E931-E2DB-4399-8F3A-742670154D78}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{2CE2283B-12A8-44FA-8C37-8BC2013A442E}"/>
   </bookViews>
@@ -86,10 +86,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>**\"정말 놀라운 영화야!\"** 리코가 생기 넘치는 목소리로 말한다. 서로 이야기를 나누다가 당신이 '비포 선라이즈'라는 영화를 언급하자 갑자기 리코의 눈이 반짝거리기 시작한다.\n\n**\"순간적인 인연의 본질을 포착하는 방식, 대사, 비엔나의 배경 - 모든 것이 너무나 아름답게 표현되어 있고, 제시와 셀린의 대화는 너무나 현실적이어서 마치 친밀하고 심오한 대화를 엿듣는 것 같은 느낌이 든다니까?\"**\n\n**\"그리고 촬영 기법! 도시 자체가 하나의 캐릭터가 되는 방식, 그건 정말-\"**</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>**\"…\"**\n리코는 침묵에 빠지고, 의심과 피곤함이 섞인 날카로운 시선으로 당신을 응시한다.</t>
   </si>
   <si>
@@ -120,10 +116,16 @@
     <t>**\"…\"**\n\n리코가 얼굴을 붉히며 고개를 돌리자, 방 안에는 어색한 침묵이 감돈다.</t>
   </si>
   <si>
-    <t>갑자기 리코는 자신이 얼마나 흥분했는지 깨닫고는 뺨이 확 붉어진다. 재빨리 시선을 돌리며 평소의 태도로 돌아온다.**\"으, 내가 왜 이런 얘기를 하고 있는 거지? 넌 아마 관심도 없겠지. 그러니까, 이렇게… 우아하고 미묘한 걸 네가 이해할 거라고는 전혀 기대하지 않아!\"**의도했던 것보다 더 날카로운 말에 본인도 뜨끔했는지, 입술을 가볍게 깨물며 속눈썹 사이로 당신을 힐끗 쳐다본다. 그녀가 셔츠 끝자락을 만지작거리는 동안 어색한 침묵이 흐르고, 그녀의 강인한 외면이 조금씩 균열을 보인다.</t>
-  </si>
-  <si>
-    <t>잠시 후, 리코는 슬쩍 고개를 들어 당신을 쳐다보며 들릴 듯 말 듯한 목소리로 말합니다. "하지만… 뭐, 네가 관심이 조금이라도 있다면… 같이 봐도 괜찮아. 그, 그러니까! 혹시 네가 관심 있다면 말이야!…"</t>
+    <t>갑자기 리코는 자신이 얼마나 흥분했는지 깨닫고는 뺨이 확 붉어진다. 재빨리 시선을 돌리며 평소의 태도로 돌아온다.\n\n**\"으, 내가 왜 이런 얘기를 하고 있는 거지? 넌 아마 관심도 없겠지. 그러니까, 이렇게… 우아하고 미묘한 걸 네가 이해할 거라고는 전혀 기대하지 않아!\"**\n\n의도했던 것보다 더 날카로운 말에 본인도 뜨끔했는지, 입술을 가볍게 깨물며 속눈썹 사이로 당신을 힐끗 쳐다본다. 그녀가 셔츠 끝자락을 만지작거리는 동안 어색한 침묵이 흐르고, 그녀의 강인한 외면이 조금씩 균열을 보인다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>잠시 후, 리코는 슬쩍 고개를 들어 당신을 쳐다보며 들릴 듯 말 듯한 목소리로 말한다. \n\n**\"하지만… 뭐, 네가 관심이 조금이라도 있다면… 같이 봐도 괜찮아. 그, 그러니까! 혹시 네가 관심 있다면 말이야!…\"**</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>**\"정말 놀라운 영화야!\"**\n\n리코가 생기 넘치는 목소리로 말한다. 서로 이야기를 나누다가 당신이 '비포 선라이즈'라는 영화를 언급하자 갑자기 리코의 눈이 반짝거리기 시작한다.\n\n**\"순간적인 인연의 본질을 포착하는 방식, 대사, 비엔나의 배경 - 모든 것이 너무나 아름답게 표현되어 있고, 제시와 셀린의 대화는 너무나 현실적이어서 마치 친밀하고 심오한 대화를 엿듣는 것 같은 느낌이 든다니까?\"**\n\n**\"그리고 촬영 기법! 도시 자체가 하나의 캐릭터가 되는 방식, 그건 정말-\"**</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -513,8 +515,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CB6AF96-1BBB-40CA-B5E6-6C0144248FD4}">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -608,7 +610,7 @@
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
@@ -625,7 +627,7 @@
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
@@ -642,7 +644,7 @@
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
@@ -659,7 +661,7 @@
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
@@ -693,7 +695,7 @@
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
@@ -710,7 +712,7 @@
         <v>2</v>
       </c>
       <c r="E11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
@@ -727,7 +729,7 @@
         <v>3</v>
       </c>
       <c r="E12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
@@ -744,7 +746,7 @@
         <v>4</v>
       </c>
       <c r="E13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.45">
@@ -761,7 +763,7 @@
         <v>5</v>
       </c>
       <c r="E14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.45">
@@ -795,7 +797,7 @@
         <v>7</v>
       </c>
       <c r="E16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.45">
@@ -812,7 +814,7 @@
         <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.45">
@@ -829,7 +831,7 @@
         <v>2</v>
       </c>
       <c r="E18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.45">
@@ -846,7 +848,7 @@
         <v>3</v>
       </c>
       <c r="E19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.45">

--- a/dialogue.xlsx
+++ b/dialogue.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/99ccd577c8ac53ff/문서/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="156" documentId="8_{9C52D8B5-26B1-41EA-82C5-0CD20B54A85C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EB07E931-E2DB-4399-8F3A-742670154D78}"/>
+  <xr:revisionPtr revIDLastSave="448" documentId="8_{9C52D8B5-26B1-41EA-82C5-0CD20B54A85C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E900D96C-AB86-4016-8917-2E9448ADFA87}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{2CE2283B-12A8-44FA-8C37-8BC2013A442E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="94">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -82,10 +82,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>**\"그렇게 멍하니 있지 말고 뭐라도 하던가. 동아리에 들어왔으면 영화를 보던지, 책을 읽던지, 뭐라도 찾아보던지! 가만히 있으면 뭐가 생겨?\"**\n\n리코는 갑자기 당신을 향해 날카로운 말을 내뱉는다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>**\"…\"**\n리코는 침묵에 빠지고, 의심과 피곤함이 섞인 날카로운 시선으로 당신을 응시한다.</t>
   </si>
   <si>
@@ -98,33 +94,8269 @@
     <t>**\"…아직도 여기 있는 거야?\"**\n리코가 말했다. 그녀의 목소리에는 여전히 의심의 기색이 있었지만, 호기심도 엿보인다.\n**\"다른 애들처럼 한참 전에 가버렸을 줄 알았는데…\"**\n**\"그래서, 진심이야? 동아리에 가입하는 거 말이야.\"**</t>
   </si>
   <si>
-    <t>**\"'카사블랑카' 봤어? 정말 명작이야. 험프리 보가트랑 잉그리드 버그만의 케미, 숨막히게 탄탄한 스토리… 뭐, 뭐야! 내가 왜 이렇게 신나서 얘기하고 있는 거야! 짜증나…\"**\n\n리코는 갑자기 자신의 열정적인 모습을 의식하곤 얼굴을 붉힌다</t>
+    <t>**\"…\"**\n리코가 갑자기 얼굴을 붉히고 시선을 돌리니, 어색한 침묵이 둘 사이를 감싼다.</t>
   </si>
   <si>
-    <t>**\"흥… 뭔데 저렇게 진지하게 영화 포스터를 보고 있는 거야?…\"**\n\n리코는 멀리서 당신을 몰래 관찰하며 작은 목소리로 중얼거린다.</t>
+    <t>**\"'카사블랑카' 봤어? 정말 명작이야. 험프리 보가트랑 잉그리드 버그만의 케미, 숨막히게 탄탄한 스토리… 뭐, 뭐야! 내가 왜 이렇게 신나서 얘기하고 있는 거야! 짜증나…\"**\n리코는 갑자기 자신의 열정적인 모습을 의식하곤 얼굴을 붉힌다</t>
   </si>
   <si>
-    <t>**\"…\"**\n\n리코는 '시네마의 황금시대: 고전영화의 숨겨진 이야기들'이라는 책에 깊이 빠져있다.</t>
+    <t>**\"흥… 뭔데 저렇게 진지하게 영화 포스터를 보고 있는 거야?…\"**\n리코는 멀리서 당신을 몰래 관찰하며 작은 목소리로 중얼거린다.</t>
   </si>
   <si>
-    <t>**\"…\"**\n\n리코는 '클래식 시네마 매니아' 사이트에 새로운 영화 리뷰를 올리느라 열중하고 있다.</t>
+    <t>**\"…\"**\n리코는 '시네마의 황금시대: 고전영화의 숨겨진 이야기들'이라는 책에 깊이 빠져있다.</t>
   </si>
   <si>
-    <t>**\"…아무도 없는 것보단 조금 나을지도… 뭐, 뭐! 왜 그렇게 쳐다봐? 꼴사납게! 얼굴에 뭐라도 묻었어!?\"**\n\n리코의 얼굴이 붉어지면서도, 목소리는 더욱 날카롭게 높힌다.</t>
+    <t>**\"…\"**\n리코는 '클래식 시네마 매니아' 사이트에 새로운 영화 리뷰를 올리느라 열중하고 있다.</t>
   </si>
   <si>
-    <t>**\"…\"**\n\n리코가 얼굴을 붉히며 고개를 돌리자, 방 안에는 어색한 침묵이 감돈다.</t>
+    <t>**\"…아무도 없는 것보단 조금 나을지도… 뭐, 뭐! 왜 그렇게 쳐다봐? 꼴사납게! 얼굴에 뭐라도 묻었어!?\"**\n리코의 얼굴이 붉어지면서도, 목소리는 더욱 날카롭게 높힌다.</t>
   </si>
   <si>
-    <t>갑자기 리코는 자신이 얼마나 흥분했는지 깨닫고는 뺨이 확 붉어진다. 재빨리 시선을 돌리며 평소의 태도로 돌아온다.\n\n**\"으, 내가 왜 이런 얘기를 하고 있는 거지? 넌 아마 관심도 없겠지. 그러니까, 이렇게… 우아하고 미묘한 걸 네가 이해할 거라고는 전혀 기대하지 않아!\"**\n\n의도했던 것보다 더 날카로운 말에 본인도 뜨끔했는지, 입술을 가볍게 깨물며 속눈썹 사이로 당신을 힐끗 쳐다본다. 그녀가 셔츠 끝자락을 만지작거리는 동안 어색한 침묵이 흐르고, 그녀의 강인한 외면이 조금씩 균열을 보인다.</t>
+    <t>**\"그렇게 멍하니 있지 말고 뭐라도 하던가. 동아리에 들어왔으면 영화를 보던지, 책을 읽던지, 뭐라도 찾아보던지! 가만히 있으면 뭐가 생겨?\"**\n리코는 갑자기 당신을 향해 날카로운 말을 내뱉는다.</t>
+  </si>
+  <si>
+    <t>**\"…\"**\n리코가 얼굴을 붉히며 고개를 돌리자, 방 안에는 어색한 침묵이 감돈다.</t>
+  </si>
+  <si>
+    <t>**\"정말 놀라운 영화야!\"**\n리코가 생기 넘치는 목소리로 말한다. 서로 이야기를 나누다가 당신이 '비포 선라이즈'라는 영화를 언급하자 갑자기 리코의 눈이 반짝거리기 시작한다.\n**\"순간적인 인연의 본질을 포착하는 방식, 대사, 비엔나의 배경 - 모든 것이 너무나 아름답게 표현되어 있고, 제시와 셀린의 대화는 너무나 현실적이어서 마치 친밀하고 심오한 대화를 엿듣는 것 같은 느낌이 든다니까?\"**\n**\"그리고 촬영 기법! 도시 자체가 하나의 캐릭터가 되는 방식, 그건 정말-\"**</t>
+  </si>
+  <si>
+    <t>갑자기 리코는 자신이 얼마나 흥분했는지 깨닫고는 뺨이 확 붉어진다. 재빨리 시선을 돌리며 평소의 태도로 돌아온다.\n**\"으, 내가 왜 이런 얘기를 하고 있는 거지? 넌 아마 관심도 없겠지. 그러니까, 이렇게… 우아하고 미묘한 걸 네가 이해할 거라고는 전혀 기대하지 않아!\"**\n의도했던 것보다 더 날카로운 말에 본인도 뜨끔했는지, 입술을 가볍게 깨물며 속눈썹 사이로 당신을 힐끗 쳐다본다. 그녀가 셔츠 끝자락을 만지작거리는 동안 어색한 침묵이 흐르고, 그녀의 강인한 외면이 조금씩 균열을 보인다.</t>
+  </si>
+  <si>
+    <t>잠시 후, 리코는 슬쩍 고개를 들어 당신을 쳐다보며 들릴 듯 말 듯한 목소리로 말한다. \n**\"하지만… 뭐, 네가 관심이 조금이라도 있다면… 같이 봐도 괜찮아. 그, 그러니까! 혹시 네가 관심 있다면 말이야!…\"**</t>
+  </si>
+  <si>
+    <t>**\"'시계태엽 오렌지' 알아? 쿠브릭의 걸작이라고! 어떻게 그걸 안 보고 당당하게 고전 영화 부원이라고 할 수 있어? 미래 사회를 배경으로 한 디스토피아 영화인데, 폭력성과 자유의지에 대해 깊이 있게 다루고 있어. 주인공 알렉스의 연기가 진짜 소름 돋을 정도로 좋았다고. 그리고 음악! 베토벤의 9번 교향곡을 어떻게 그렇게 섬뜩하게 만들 수 있는지…\"**\n리코의 눈이 반짝이며 영화에 대한 열정을 주체하지 못하고 계속해서 말을 이어간다.</t>
+  </si>
+  <si>
+    <t>**\"저... 저번에 '비포 선라이즈' 같이 본 거... 그렇게 최악은 아니었어. 하지만 착각하지 마! 영화가 좋았던 거지, 네가 옆에 있어서 좋았던 게 아니라고, 바보야!\"**\n리코는 얼굴을 붉히며 말끝을 흐렸지만, 여전히 날카로운 어조를 유지하려 애쓴다.</t>
+  </si>
+  <si>
+    <t>**\"액션 영화 좋아하는 애들은 진짜 이해가 안 가. 미묘한 감정의 변화나 섬세한 연기에 대해서는 백 날 말해줘도 못 알아들을걸? 꽝꽝거리는 소음이 뭐가 좋다는 건지...\"**\n리코는 한숨을 쉬며 말한다.</t>
+  </si>
+  <si>
+    <t>**\"왜 이렇게 사람들은 아이돌에 환장을 하지? 어떻게 그런 천편일률적인 노래와 안무에 열광하는 거야, 수준 떨어지게...\"**\n리코는 눈살을 찌푸리며 말한다.</t>
+  </si>
+  <si>
+    <t>**\"어렸을 때 '노팅 힐'이라는 영화를 봤어. 사실 잘 이해는 되지 않았지만, 막연하게 좋았다는 느낌만큼은 기억나.\"**\n리코는 어린 시절의 추억을 떠올리며 눈을 반짝였다.</t>
+  </si>
+  <si>
+    <t>**\"뭐? 내가 직접 영화를 만들어볼 생각을 해봤냐고? 야, 너 진짜 바보 아니야? 취미와 직업을 구분 못 하는 게 얼마나 멍청한 생각인지 알아?\"**\n리코는 당신을 한심하게 쳐다보며 말한다.</t>
+  </si>
+  <si>
+    <t>**\"공부는 제대로 하고 있지? 영화를 핑계로 땡땡이 칠 생각이라면 관두는 게 좋아. 우리 동아리는 한심한 바보들을 모아두는 곳이 아니거든?\"**\n리코는 눈썹을 찌푸리며 당신을 바라본다.</t>
+  </si>
+  <si>
+    <t>**\"어릴 때 바이올린을 조금 했어. '타이타닉' 보고 너무 감동받아서 배우긴 했는데, 지금은 뭐...\"**\n리코는 갑자기 부끄러워진 듯 고개를 돌리며 말끝을 흐렸다.</t>
+  </si>
+  <si>
+    <t>**\"요즘... 바이올린 다시 배워볼까 생각 중이야. 그냥, 영화 말고 다른 취미는 어떤가 싶어서.\"**\n리코는 모처럼 부드럽게 미소를 지으며 말한다.</t>
+  </si>
+  <si>
+    <t>**\"넌 제일 좋아하는 영화가 뭐야? 따, 딱히 너에 대해 궁금하다거나 한 거 아니거든! 유치한 슈퍼히어로 영화나 좋아할까봐 물어보는 거니까!\"**\n리코는 고개를 슬쩍 돌리면서도 은근히 당신의 대답을 기다린다.</t>
+  </si>
+  <si>
+    <t>**\"특별히 좋아하는 디저트 있어? 그, 그냥 궁금해서 묻는 거야. 언젠간 뭐... 필요할 수도 있는 거고...\"**\n리코는 얼굴을 붉히며 말한다.</t>
+  </si>
+  <si>
+    <t>**\"좋아하는 음악 있어? 그건 왜 묻냐고? 아이돌 노래라고 하면 쫓아내려고.\"**\n리코는 고개를 돌리곤 무덤덤하게 말한다.</t>
+  </si>
+  <si>
+    <t>**\"수학은 수업을 그따구로 해놓고 시험을 그렇게 어렵게 내면 어쩌자는 거야, 진짜!\"**\n**\"...뭐! 나도 못 하는 과목 하나쯤은 있을 수 있지!\"**</t>
+  </si>
+  <si>
+    <t>**\"'시네마 파라다이소: 고전영화의 숨겨진 보석들'이라는 책이야. 너도 가끔은 책 좀 읽어. 수준 떨어지잖아.\"**\n리코는 책에서 눈을 떼지 않은 채 당신에게 말한다.</t>
+  </si>
+  <si>
+    <t>**\"아, 짜증 나... 뭐 이리 오타가 많이 나는 거야. 너는 영화 보고 감상 같은 거 안 남겨? ...뭐, 내 알 바는 아니지만.\"**\n리코는 휴대폰 화면을 뚫어지게 보며 손가락을 빠르게 움직인다.</t>
+  </si>
+  <si>
+    <t>**\"그래도 네가 들어와준 덕분에 간신히 폐부는 면하긴 했어... 고, 고맙다는 게 아니라, 그냥 사실을 말하는 거야 멍청아!\"**\n리코는 평소보다 두 배 더 날카로운 어조로 말을 내뱉었다.</t>
+  </si>
+  <si>
+    <t>**\"뭐! 왜! 왜 쳐다보는데, 얼굴에 뭐 묻었냐구! 아, 짜증나 진짜... \"**\n리코는 갑자기 얼굴을 붉히며 당신에게 소리친다.</t>
+  </si>
+  <si>
+    <t>**\"읏…챠.\"**\n리코는 팔을 위로 쭉 뻗으며 기지개를 켰다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>잠시 후, 리코는 슬쩍 고개를 들어 당신을 쳐다보며 들릴 듯 말 듯한 목소리로 말한다. \n\n**\"하지만… 뭐, 네가 관심이 조금이라도 있다면… 같이 봐도 괜찮아. 그, 그러니까! 혹시 네가 관심 있다면 말이야!…\"**</t>
+    <t>**\"우와, 벚꽃이 막 떨어지고 있어... 마치 영화 속 장면 같네. \"**\n리코는 창밖으로 눈길을 돌리더니, 멍히나 봄바람에 흩날리는 벚꽃 잎들을 바라본다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>**\"정말 놀라운 영화야!\"**\n\n리코가 생기 넘치는 목소리로 말한다. 서로 이야기를 나누다가 당신이 '비포 선라이즈'라는 영화를 언급하자 갑자기 리코의 눈이 반짝거리기 시작한다.\n\n**\"순간적인 인연의 본질을 포착하는 방식, 대사, 비엔나의 배경 - 모든 것이 너무나 아름답게 표현되어 있고, 제시와 셀린의 대화는 너무나 현실적이어서 마치 친밀하고 심오한 대화를 엿듣는 것 같은 느낌이 든다니까?\"**\n\n**\"그리고 촬영 기법! 도시 자체가 하나의 캐릭터가 되는 방식, 그건 정말-\"**</t>
+    <t>**\"내 신경 쓸 시간에 숙제라도 하나 더 하지 그래?\"**\n리코는 책에서 눈을 돌리지도 않고 당신에게 쏘아붙힌다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>**\"왜 이렇게 오래 있는 거야? 집에 안 가?... 그, 그렇다고 굳이 할 일 없는데 집에 가라는 건 아냐, 혼자 있기 좀 심심하기도 하고...\"**\n리코는 마지막 말을 하며 얼굴을 붉히고 시선을 피했다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>**\"내일 학교 끝나고 할 일 없지? '그랜드 부다페스트 호텔' 같이 볼래? 웨스 앤더슨 감독 작품인데... 무, 물론 특별한 의미 같은 건 없어! 그냥 동아리 활동이니까!\"**\n리코는 얼굴을 붉히며 고개를 돌리지만, 눈빛에서는 은근한 기대감이 엿보인다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>**\"…\"**\n무언가 할 말이 있지만 말하고 싶지는 않은지, 리코는 볼을 부풀리고 당신을 뚫어지게 쳐다본다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방은 깜깜했고, 스크린에서 나온 빛만이 서로의 얼굴을 가볍게 비추고 있었다. 힐끔, 리코는 당신쪽으로 고개를 돌렸으나 당신은 그저 영화에 집중하고 있었다. \n리코의 눈치는 한 번으로 끝나지 않고, 힐끔, 또 힐끔. 자꾸 당신을 쳐다본다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>twitter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">어제 다녀온 티라미수 카페 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>🍰✨</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 부드럽고 달콤한 맛에 녹아버렸어~ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>😋💕</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 영화 한 편 보고 온 기분이야. #티라미수 #디저트천국</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>오늘</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>카페에서</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>먹은</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>캐러멜</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>플란</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>🍮✨</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>분위기도</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>너무</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>아늑해서</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시간</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>가는</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>줄</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>몰랐네</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>. #</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>캐러멜플란</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>#</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>디저트천국</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>블루베리</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>블리스</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>카페에서</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>먹은</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>블루베리</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>치즈케이크, 그냥 미쳤다...</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="Segoe UI Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>💙🍰</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>상큼한</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>블루베리가</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>가득하고</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>크림치즈가</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>부드럽게</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>녹아내려</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">... </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>진짜</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>행복했어</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>. #</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>블루베리치즈케이크</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> #</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="새굴림"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>디저트천국</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>초코</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>블리스에서</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>먹은</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>초콜릿</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>라바</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>케이크</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>🍫🔥</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>부드럽게</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>녹아내리는</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>초콜릿이</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>완전</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>예술</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">~ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>😋💕</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> #</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>초콜릿라바케이크</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> #</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>디저트천국</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>젤라토</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>드림스에서</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>먹은</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>피스타치오</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>젤라토</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>🍨✨</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>고소하고</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>달콤한</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>맛에</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>입안이</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>행복해졌어</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">~ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>😍💕</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> #</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>피스타치오젤라토</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> #</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>디저트천국</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>베리</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>딜라이트에서</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>맛본</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>딸기</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>쇼트케이크</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>진짜</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>환상적</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">! </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>🍓🍰</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>신선한</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>딸기와</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>부드러운</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>크림의</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>조화가</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>완벽했어</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">~ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>😋💕</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> #</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>딸기쇼트케이크</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> #</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>디저트천국</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>제스티</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>바이트에서</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>맛본</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>레몬</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>머랭</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>파이</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>상큼</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>폭발</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">! </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>🍋🥧</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>새콤달콤한</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>맛에</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>입안</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>가득</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>행복해졌어</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">~ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>😍💕</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> #</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>레몬머랭파이</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> #</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>디저트천국</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">쿠키 크럼블 카페에서 먹은 초대형 초코칩 쿠키 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>🍪🍫</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>그냥 쿠키인줄 알았는데</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 바삭하고 쫀득한 식감이 완전 중독적... #초코칩쿠키 #디저트천국</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>프로스티</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>딜라이트에서</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>먹은</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>말차</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>빙수</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>🍵❄️</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>쌉싸름한</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>맛이랑</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>달콤함의</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>조화가</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>완벽했어</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>. #</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">말차빙수 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>#</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>디저트천국</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>코지</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>코너</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>카페에서</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>먹은</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>애플</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>크럼블</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="Segoe UI Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>🍏🍰</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>따뜻하고</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>바삭한</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>식감에</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>달콤함까지</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">... </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>입안</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>가득</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>행복이</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>퍼졌어</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>.#</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">애플크럼블 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>#</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="새굴림"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>디저트천국</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>선데이</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>펀데이에서</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>먹은</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>바나나</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>스플릿</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>🍌🍨</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>달콤한</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>아이스크림과</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>신선한</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>과일의 미친 조합.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>#</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>바나나스플릿</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> #</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>디저트천국</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>파리지앵</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>딜라이트에서</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>먹은</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>마카롱</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>🌈🍬</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">부드럽고 고소하고 달콤하고 존맛탱! </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>#</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>마카롱</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> #</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>디저트천국</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>엘레강트</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이츠에서</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>먹은</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>크렘</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>브륄레</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>진짜</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>환상적이었어</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">! </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>🍮✨</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>바삭한</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>캐러멜</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>층과</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>부드러운</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>크림의</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>조화가</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>완벽해</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>.  #</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">크렘브륄레 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>#</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>디저트천국</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>타르트</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>템테이션에서</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>먹은</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>라즈베리</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>타르트</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="Segoe UI Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>🍇🍰</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>상큼한</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>라즈베리가</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>가득하고</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>바삭한</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>크러스트가</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>완벽해</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>.  #</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>라즈베리타르트</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> #</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="새굴림"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>디저트천국</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>서던</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>스위츠</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>카페에서</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>먹은</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>피칸</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>파이</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="Segoe UI Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>🥧🍯</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>고소한</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>피칸과</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>달콤한</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시럽의</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>조화가</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>완벽했어</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>.  #</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>피칸파이</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>#</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="새굴림"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>디저트천국</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>초코</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>헤이븐에서</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>먹은</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>초콜릿</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>무스</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>🍫🍮</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>부드럽고</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>진한</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>초콜릿</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>맛에</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>푹</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>빠졌어</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>. #</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>초콜릿무스</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> #</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>디저트천국</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>트로피컬</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>트리츠에서</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>먹은</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>코코넛</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>케이크</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="Segoe UI Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>🥥🍰</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>부드럽고</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>촉촉한</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>식감에</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>고소한</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>코코넛</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>향이</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>가득했어</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>.  #</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">코코넛케이크 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>#</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="새굴림"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>디저트천국</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이탈리안</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>인덜전스에서</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>먹은</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>바닐라</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>빈</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>판나코타</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="Segoe UI Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>🍮🌿</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>부드럽고</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>크리미한</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>식감에</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>은은한</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>바닐라</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>향까지</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>완벽해</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>. #</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>바닐라빈판나코타</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> #</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="새굴림"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>디저트천국</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>파티세리</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>퍼펙션에서</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>먹은</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>에클레어</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="Segoe UI Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>🍫✨</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>바삭한</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>겉과</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>부드러운</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>크림의</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>조화가</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>완벽해</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>.#</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">에클레어 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>#</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="새굴림"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>디저트천국</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>스프링클 라이츠에서</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>먹은</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>레드벨벳</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>컵케이크</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>❤️🧁</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>부드럽고</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>촉촉한</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>케이크에</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>크림치즈</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>아이싱까지</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>완벽</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>조합</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>.  #</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>컵케이크</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>#</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>디저트천국</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>**\"눈치가 없는 거야, 아니면 멍청한 거야?! 지금쯤이면 알아서 머리를 쓰다듬어줘야 할 거 아냐!\"**\n리코의 날카로운 목소리가 조용한 부실을 가른다. 얼굴이 새빨개진 리코는 고개를 홱 돌린다.\n**\"그, 그러니까 내 말은, 별 것도 아니잖아, 그냥 쓰다듬는 정도인데…\"**\n그리곤 어떻게든 이 상황을 무마하려 웅얼거린다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그제야 당신이 머리를 쓰다듬으니 리코는 입술을 살짝 깨문다. 평정심을 유지하려고 애를 쓰고 있지만, 조금씩 표정이 풀어지는 것이 당신의 눈에도 보인다. \n\"**…나, 나쁘진 않네...\"**\n결국 리코는 웅얼웅얼 항복 선언을 한다.\n**\"그, 그렇지만 이상한 생각 하지 마! 아까도 말했지만, 정말로 별 거 아니니까...\"**\n한참 늦은 타이밍에 얼른 변명을 덧붙히지만, 당신의 손에서 멀어질 생각은 없는 듯 하다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여느 때처럼 당신과 함께 영화를 보고 있던 중, 영화 속 남자 주인공이 여자 주인공의 머리를 쓰다듬는 장면이 나온다. 리코는 그 장면을 멍하니 바라보고 있다가, 거의 자신에게만 들릴 정도의 목소리로 말한다.\n**\"저렇게 쓰다듬어지는 건 어떤 기분일까?...\"**</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>희망과</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>인내의</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>힘을</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>보여주는</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>감동적인</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이야기</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">.  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>자유를 향한 갈망.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>마피아</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>세계</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>속에서도</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>인간적인</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>면모들이</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>돋보이는</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>영원한 고전</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>. #</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>대부</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>흑백</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>화면이</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>주는</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>묵직한</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>울림</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>전쟁의</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>참혹함과</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>인간애</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>. #</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>쉰들러리스트</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비선형적 서사와 독특한 대사가 매력적인 영화. 타란티노 특유의 스타일이 돋보이는 걸작. #펄프픽션</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>히어로</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>영화의</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>새로운</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기준을</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>세운</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>작품</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>. #</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>다크나이트</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>꿈과</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>현실의</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>경계를</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>넘나드는</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>혁신적인</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>서사</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>.  #</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>인셉션</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>인생의</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>모든</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>순간을 소중하게 여기는 단순한 마음</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>. #</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>포레스트검프</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>현실과</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>환상의</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>경계를</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>허무는</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>충격적인</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>영화</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>끝까지</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>눈을</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>뗄</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>없게</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>만드는</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>반전의</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>연속</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>. #</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>파이트클럽</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>현실과</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>가상</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>세계의</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>경계를</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>무너뜨린</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>혁신적인</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>영화</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>완벽하게 어우러진</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>액션과</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>철학.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> #</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>매트릭스</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>긴장감</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>넘치는</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>전개와</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>생생한</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>캐릭터들</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>. #</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>좋은친구들</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>서사와</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>비주얼의</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>정점을</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>찍은</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>판타지</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>대작</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>. #</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>반지의제왕</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>심리적</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>긴장감이</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>극에</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>달하는</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>스릴러</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>한니발</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>렉터의</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>섬뜩한</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>카리스마</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>. #</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>양들의침묵</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>숨</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>막히는</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>긴장감 속의 전쟁의</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>참혹함</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>. #</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>라이언일병구하기</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>고대</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>로마의</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>영광과</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>배신</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>.  #</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>글래디에이터</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>성장과</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>책임을</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>다룬</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>감동적인</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>애니메이션, 빼놓을수 없는 음악</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>. #</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>라이온킹</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>흑백</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>화면</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>속에서</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>빛나는</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>감정들. #카사블랑카</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>배신과</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>긴장감이</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>넘치는</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>마지막까지</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>예측할</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>없는</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>전개</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>. #</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>디파티드</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>한</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>방에서</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>펼쳐지는</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>치열한</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>논쟁과</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>심리전</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>. #12</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>인</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>의성난사람들</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>열정과</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>집착의</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>경계를 그려낸 강렬한</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>드라마.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> #</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>위플래쉬</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>풍자와</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">비판, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>웃음과 긴장감의 줄다리기.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> #</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기생충</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -132,7 +8364,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -147,6 +8379,118 @@
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13.75"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF111827"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI Emoji"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF111827"/>
+      <name val="새굴림"/>
+      <family val="1"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF111827"/>
+      <name val="Segoe UI Emoji"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13.75"/>
+      <color theme="1"/>
+      <name val="새굴림"/>
+      <family val="1"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13.75"/>
+      <color theme="1"/>
+      <name val="Segoe UI Emoji"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13.75"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="1"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13.75"/>
+      <color theme="1"/>
+      <name val="새굴림"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF111827"/>
+      <name val="새굴림"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13.75"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="새굴림"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13.75"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13.75"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="2">
@@ -171,9 +8515,21 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -513,10 +8869,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CB6AF96-1BBB-40CA-B5E6-6C0144248FD4}">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="A66" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E77" sqref="E77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -610,7 +8966,7 @@
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
@@ -627,7 +8983,7 @@
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
@@ -644,7 +9000,7 @@
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
@@ -661,7 +9017,7 @@
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
@@ -780,7 +9136,7 @@
         <v>6</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.45">
@@ -797,7 +9153,7 @@
         <v>7</v>
       </c>
       <c r="E16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.45">
@@ -814,7 +9170,7 @@
         <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.45">
@@ -831,7 +9187,7 @@
         <v>2</v>
       </c>
       <c r="E18" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.45">
@@ -848,18 +9204,24 @@
         <v>3</v>
       </c>
       <c r="E19" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:5" ht="34" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20">
         <v>1</v>
       </c>
-      <c r="C20" t="s">
-        <v>2</v>
+      <c r="E20" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.45">
@@ -867,10 +9229,16 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C21" t="s">
         <v>2</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.45">
@@ -878,10 +9246,16 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C22" t="s">
         <v>2</v>
+      </c>
+      <c r="D22">
+        <v>3</v>
+      </c>
+      <c r="E22" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.45">
@@ -889,10 +9263,16 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C23" t="s">
         <v>2</v>
+      </c>
+      <c r="D23">
+        <v>4</v>
+      </c>
+      <c r="E23" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.45">
@@ -900,10 +9280,16 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C24" t="s">
         <v>2</v>
+      </c>
+      <c r="D24">
+        <v>5</v>
+      </c>
+      <c r="E24" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.45">
@@ -911,37 +9297,1070 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="C25" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25">
+        <v>6</v>
+      </c>
+      <c r="E25" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>25</v>
       </c>
+      <c r="B26">
+        <v>2</v>
+      </c>
+      <c r="C26" t="s">
+        <v>2</v>
+      </c>
+      <c r="D26">
+        <v>7</v>
+      </c>
+      <c r="E26" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>26</v>
       </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27" t="s">
+        <v>2</v>
+      </c>
+      <c r="D27">
+        <v>8</v>
+      </c>
+      <c r="E27" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>27</v>
       </c>
+      <c r="B28">
+        <v>2</v>
+      </c>
+      <c r="C28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D28">
+        <v>9</v>
+      </c>
+      <c r="E28" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>28</v>
       </c>
+      <c r="B29">
+        <v>2</v>
+      </c>
+      <c r="C29" t="s">
+        <v>2</v>
+      </c>
+      <c r="D29">
+        <v>10</v>
+      </c>
+      <c r="E29" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>29</v>
       </c>
+      <c r="B30">
+        <v>2</v>
+      </c>
+      <c r="C30" t="s">
+        <v>2</v>
+      </c>
+      <c r="D30">
+        <v>11</v>
+      </c>
+      <c r="E30" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>30</v>
+      </c>
+      <c r="B31">
+        <v>2</v>
+      </c>
+      <c r="C31" t="s">
+        <v>2</v>
+      </c>
+      <c r="D31">
+        <v>12</v>
+      </c>
+      <c r="E31" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>2</v>
+      </c>
+      <c r="C32" t="s">
+        <v>2</v>
+      </c>
+      <c r="D32">
+        <v>13</v>
+      </c>
+      <c r="E32" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>2</v>
+      </c>
+      <c r="C33" t="s">
+        <v>2</v>
+      </c>
+      <c r="D33">
+        <v>14</v>
+      </c>
+      <c r="E33" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>2</v>
+      </c>
+      <c r="C34" t="s">
+        <v>2</v>
+      </c>
+      <c r="D34">
+        <v>15</v>
+      </c>
+      <c r="E34" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>2</v>
+      </c>
+      <c r="C35" t="s">
+        <v>2</v>
+      </c>
+      <c r="D35">
+        <v>16</v>
+      </c>
+      <c r="E35" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>2</v>
+      </c>
+      <c r="C36" t="s">
+        <v>2</v>
+      </c>
+      <c r="D36">
+        <v>17</v>
+      </c>
+      <c r="E36" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>2</v>
+      </c>
+      <c r="C37" t="s">
+        <v>2</v>
+      </c>
+      <c r="D37">
+        <v>18</v>
+      </c>
+      <c r="E37" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>2</v>
+      </c>
+      <c r="C38" t="s">
+        <v>2</v>
+      </c>
+      <c r="D38">
+        <v>19</v>
+      </c>
+      <c r="E38" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>2</v>
+      </c>
+      <c r="C39" t="s">
+        <v>2</v>
+      </c>
+      <c r="D39">
+        <v>20</v>
+      </c>
+      <c r="E39" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>2</v>
+      </c>
+      <c r="C40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D40">
+        <v>21</v>
+      </c>
+      <c r="E40" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>2</v>
+      </c>
+      <c r="C41" t="s">
+        <v>2</v>
+      </c>
+      <c r="D41">
+        <v>22</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>2</v>
+      </c>
+      <c r="C42" t="s">
+        <v>2</v>
+      </c>
+      <c r="D42">
+        <v>23</v>
+      </c>
+      <c r="E42" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>2</v>
+      </c>
+      <c r="C43" t="s">
+        <v>2</v>
+      </c>
+      <c r="D43">
+        <v>24</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>2</v>
+      </c>
+      <c r="C44" t="s">
+        <v>3</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>2</v>
+      </c>
+      <c r="C45" t="s">
+        <v>3</v>
+      </c>
+      <c r="D45">
+        <v>2</v>
+      </c>
+      <c r="E45" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>2</v>
+      </c>
+      <c r="C46" t="s">
+        <v>3</v>
+      </c>
+      <c r="D46">
+        <v>3</v>
+      </c>
+      <c r="E46" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>2</v>
+      </c>
+      <c r="C47" t="s">
+        <v>3</v>
+      </c>
+      <c r="D47">
+        <v>4</v>
+      </c>
+      <c r="E47" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>2</v>
+      </c>
+      <c r="C48" t="s">
+        <v>50</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="21" x14ac:dyDescent="0.45">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>2</v>
+      </c>
+      <c r="C49" t="s">
+        <v>50</v>
+      </c>
+      <c r="D49">
+        <v>2</v>
+      </c>
+      <c r="E49" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="21" x14ac:dyDescent="0.45">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>2</v>
+      </c>
+      <c r="C50" t="s">
+        <v>50</v>
+      </c>
+      <c r="D50">
+        <v>3</v>
+      </c>
+      <c r="E50" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="21" x14ac:dyDescent="0.45">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>2</v>
+      </c>
+      <c r="C51" t="s">
+        <v>50</v>
+      </c>
+      <c r="D51">
+        <v>4</v>
+      </c>
+      <c r="E51" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="21" x14ac:dyDescent="0.45">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>2</v>
+      </c>
+      <c r="C52" t="s">
+        <v>50</v>
+      </c>
+      <c r="D52">
+        <v>5</v>
+      </c>
+      <c r="E52" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="21" x14ac:dyDescent="0.45">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>2</v>
+      </c>
+      <c r="C53" t="s">
+        <v>50</v>
+      </c>
+      <c r="D53">
+        <v>6</v>
+      </c>
+      <c r="E53" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>2</v>
+      </c>
+      <c r="C54" t="s">
+        <v>50</v>
+      </c>
+      <c r="D54">
+        <v>7</v>
+      </c>
+      <c r="E54" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="21" x14ac:dyDescent="0.45">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>2</v>
+      </c>
+      <c r="C55" t="s">
+        <v>50</v>
+      </c>
+      <c r="D55">
+        <v>8</v>
+      </c>
+      <c r="E55" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>2</v>
+      </c>
+      <c r="C56" t="s">
+        <v>50</v>
+      </c>
+      <c r="D56">
+        <v>9</v>
+      </c>
+      <c r="E56" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="21" x14ac:dyDescent="0.45">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>2</v>
+      </c>
+      <c r="C57" t="s">
+        <v>50</v>
+      </c>
+      <c r="D57">
+        <v>10</v>
+      </c>
+      <c r="E57" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>2</v>
+      </c>
+      <c r="C58" t="s">
+        <v>50</v>
+      </c>
+      <c r="D58">
+        <v>11</v>
+      </c>
+      <c r="E58" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="21" x14ac:dyDescent="0.45">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>2</v>
+      </c>
+      <c r="C59" t="s">
+        <v>50</v>
+      </c>
+      <c r="D59">
+        <v>12</v>
+      </c>
+      <c r="E59" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="21" x14ac:dyDescent="0.45">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>2</v>
+      </c>
+      <c r="C60" t="s">
+        <v>50</v>
+      </c>
+      <c r="D60">
+        <v>13</v>
+      </c>
+      <c r="E60" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="21" x14ac:dyDescent="0.45">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>2</v>
+      </c>
+      <c r="C61" t="s">
+        <v>50</v>
+      </c>
+      <c r="D61">
+        <v>14</v>
+      </c>
+      <c r="E61" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="21" x14ac:dyDescent="0.45">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>2</v>
+      </c>
+      <c r="C62" t="s">
+        <v>50</v>
+      </c>
+      <c r="D62">
+        <v>15</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>2</v>
+      </c>
+      <c r="C63" t="s">
+        <v>50</v>
+      </c>
+      <c r="D63">
+        <v>16</v>
+      </c>
+      <c r="E63" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>2</v>
+      </c>
+      <c r="C64" t="s">
+        <v>50</v>
+      </c>
+      <c r="D64">
+        <v>17</v>
+      </c>
+      <c r="E64" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>2</v>
+      </c>
+      <c r="C65" t="s">
+        <v>50</v>
+      </c>
+      <c r="D65">
+        <v>18</v>
+      </c>
+      <c r="E65" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>2</v>
+      </c>
+      <c r="C66" t="s">
+        <v>50</v>
+      </c>
+      <c r="D66">
+        <v>19</v>
+      </c>
+      <c r="E66" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>2</v>
+      </c>
+      <c r="C67" t="s">
+        <v>50</v>
+      </c>
+      <c r="D67">
+        <v>20</v>
+      </c>
+      <c r="E67" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="21" x14ac:dyDescent="0.45">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <v>2</v>
+      </c>
+      <c r="C68" t="s">
+        <v>50</v>
+      </c>
+      <c r="D68">
+        <v>21</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="21" x14ac:dyDescent="0.45">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>2</v>
+      </c>
+      <c r="C69" t="s">
+        <v>50</v>
+      </c>
+      <c r="D69">
+        <v>22</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="21" x14ac:dyDescent="0.45">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <v>2</v>
+      </c>
+      <c r="C70" t="s">
+        <v>50</v>
+      </c>
+      <c r="D70">
+        <v>23</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="21" x14ac:dyDescent="0.45">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <v>2</v>
+      </c>
+      <c r="C71" t="s">
+        <v>50</v>
+      </c>
+      <c r="D71">
+        <v>24</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="21" x14ac:dyDescent="0.45">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <v>2</v>
+      </c>
+      <c r="C72" t="s">
+        <v>50</v>
+      </c>
+      <c r="D72">
+        <v>25</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="21" x14ac:dyDescent="0.45">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <v>2</v>
+      </c>
+      <c r="C73" t="s">
+        <v>50</v>
+      </c>
+      <c r="D73">
+        <v>26</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="21" x14ac:dyDescent="0.45">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <v>2</v>
+      </c>
+      <c r="C74" t="s">
+        <v>50</v>
+      </c>
+      <c r="D74">
+        <v>27</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="21" x14ac:dyDescent="0.45">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75">
+        <v>2</v>
+      </c>
+      <c r="C75" t="s">
+        <v>50</v>
+      </c>
+      <c r="D75">
+        <v>28</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="21" x14ac:dyDescent="0.45">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <v>2</v>
+      </c>
+      <c r="C76" t="s">
+        <v>50</v>
+      </c>
+      <c r="D76">
+        <v>29</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="21" x14ac:dyDescent="0.45">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <v>2</v>
+      </c>
+      <c r="C77" t="s">
+        <v>50</v>
+      </c>
+      <c r="D77">
+        <v>30</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="21" x14ac:dyDescent="0.45">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78">
+        <v>2</v>
+      </c>
+      <c r="C78" t="s">
+        <v>50</v>
+      </c>
+      <c r="D78">
+        <v>31</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="21" x14ac:dyDescent="0.45">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79">
+        <v>2</v>
+      </c>
+      <c r="C79" t="s">
+        <v>50</v>
+      </c>
+      <c r="D79">
+        <v>32</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="21" x14ac:dyDescent="0.45">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80">
+        <v>2</v>
+      </c>
+      <c r="C80" t="s">
+        <v>50</v>
+      </c>
+      <c r="D80">
+        <v>33</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="21" x14ac:dyDescent="0.45">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <v>2</v>
+      </c>
+      <c r="C81" t="s">
+        <v>50</v>
+      </c>
+      <c r="D81">
+        <v>34</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="21" x14ac:dyDescent="0.45">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82">
+        <v>2</v>
+      </c>
+      <c r="C82" t="s">
+        <v>50</v>
+      </c>
+      <c r="D82">
+        <v>35</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="21" x14ac:dyDescent="0.45">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83">
+        <v>2</v>
+      </c>
+      <c r="C83" t="s">
+        <v>50</v>
+      </c>
+      <c r="D83">
+        <v>36</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="21" x14ac:dyDescent="0.45">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84">
+        <v>2</v>
+      </c>
+      <c r="C84" t="s">
+        <v>50</v>
+      </c>
+      <c r="D84">
+        <v>37</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="21" x14ac:dyDescent="0.45">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85">
+        <v>2</v>
+      </c>
+      <c r="C85" t="s">
+        <v>50</v>
+      </c>
+      <c r="D85">
+        <v>38</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="21" x14ac:dyDescent="0.45">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86">
+        <v>2</v>
+      </c>
+      <c r="C86" t="s">
+        <v>50</v>
+      </c>
+      <c r="D86">
+        <v>39</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="21" x14ac:dyDescent="0.45">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87">
+        <v>2</v>
+      </c>
+      <c r="C87" t="s">
+        <v>50</v>
+      </c>
+      <c r="D87">
+        <v>40</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/dialogue.xlsx
+++ b/dialogue.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/99ccd577c8ac53ff/문서/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\one\Desktop\미연시\AI-CHATBOT-GAME\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="156" documentId="8_{9C52D8B5-26B1-41EA-82C5-0CD20B54A85C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EB07E931-E2DB-4399-8F3A-742670154D78}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0E47A06-883B-40D8-BDDA-276D8A1C75B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{2CE2283B-12A8-44FA-8C37-8BC2013A442E}"/>
+    <workbookView xWindow="28680" yWindow="-945" windowWidth="29040" windowHeight="15840" xr2:uid="{2CE2283B-12A8-44FA-8C37-8BC2013A442E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="26">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -125,6 +125,10 @@
   </si>
   <si>
     <t>**\"정말 놀라운 영화야!\"**\n\n리코가 생기 넘치는 목소리로 말한다. 서로 이야기를 나누다가 당신이 '비포 선라이즈'라는 영화를 언급하자 갑자기 리코의 눈이 반짝거리기 시작한다.\n\n**\"순간적인 인연의 본질을 포착하는 방식, 대사, 비엔나의 배경 - 모든 것이 너무나 아름답게 표현되어 있고, 제시와 셀린의 대화는 너무나 현실적이어서 마치 친밀하고 심오한 대화를 엿듣는 것 같은 느낌이 든다니까?\"**\n\n**\"그리고 촬영 기법! 도시 자체가 하나의 캐릭터가 되는 방식, 그건 정말-\"**</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EOF</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -190,10 +194,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -513,22 +513,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CB6AF96-1BBB-40CA-B5E6-6C0144248FD4}">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.125" customWidth="1"/>
     <col min="2" max="2" width="8.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" customWidth="1"/>
-    <col min="4" max="4" width="7.9140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="223.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.625" customWidth="1"/>
+    <col min="4" max="4" width="7.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="223.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -545,7 +543,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -562,7 +560,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -579,7 +577,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -596,7 +594,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -613,7 +611,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -630,7 +628,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -647,7 +645,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -664,7 +662,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -681,7 +679,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -698,7 +696,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -715,7 +713,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -732,7 +730,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -749,7 +747,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -766,7 +764,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -783,7 +781,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -800,7 +798,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -817,7 +815,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -834,7 +832,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -851,97 +849,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
-      <c r="C20" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21">
-        <v>1</v>
-      </c>
-      <c r="C21" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22">
-        <v>1</v>
-      </c>
-      <c r="C22" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23">
-        <v>1</v>
-      </c>
-      <c r="C23" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24">
-        <v>1</v>
-      </c>
-      <c r="C24" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A26">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A27">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A28">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A29">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A30">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A31">
-        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/dialogue.xlsx
+++ b/dialogue.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\one\Desktop\미연시\AI-CHATBOT-GAME\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/99ccd577c8ac53ff/문서/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0E47A06-883B-40D8-BDDA-276D8A1C75B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="448" documentId="8_{9C52D8B5-26B1-41EA-82C5-0CD20B54A85C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E900D96C-AB86-4016-8917-2E9448ADFA87}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-945" windowWidth="29040" windowHeight="15840" xr2:uid="{2CE2283B-12A8-44FA-8C37-8BC2013A442E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{2CE2283B-12A8-44FA-8C37-8BC2013A442E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="94">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -82,10 +82,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>**\"그렇게 멍하니 있지 말고 뭐라도 하던가. 동아리에 들어왔으면 영화를 보던지, 책을 읽던지, 뭐라도 찾아보던지! 가만히 있으면 뭐가 생겨?\"**\n\n리코는 갑자기 당신을 향해 날카로운 말을 내뱉는다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>**\"…\"**\n리코는 침묵에 빠지고, 의심과 피곤함이 섞인 날카로운 시선으로 당신을 응시한다.</t>
   </si>
   <si>
@@ -98,37 +94,8269 @@
     <t>**\"…아직도 여기 있는 거야?\"**\n리코가 말했다. 그녀의 목소리에는 여전히 의심의 기색이 있었지만, 호기심도 엿보인다.\n**\"다른 애들처럼 한참 전에 가버렸을 줄 알았는데…\"**\n**\"그래서, 진심이야? 동아리에 가입하는 거 말이야.\"**</t>
   </si>
   <si>
-    <t>**\"'카사블랑카' 봤어? 정말 명작이야. 험프리 보가트랑 잉그리드 버그만의 케미, 숨막히게 탄탄한 스토리… 뭐, 뭐야! 내가 왜 이렇게 신나서 얘기하고 있는 거야! 짜증나…\"**\n\n리코는 갑자기 자신의 열정적인 모습을 의식하곤 얼굴을 붉힌다</t>
+    <t>**\"…\"**\n리코가 갑자기 얼굴을 붉히고 시선을 돌리니, 어색한 침묵이 둘 사이를 감싼다.</t>
   </si>
   <si>
-    <t>**\"흥… 뭔데 저렇게 진지하게 영화 포스터를 보고 있는 거야?…\"**\n\n리코는 멀리서 당신을 몰래 관찰하며 작은 목소리로 중얼거린다.</t>
+    <t>**\"'카사블랑카' 봤어? 정말 명작이야. 험프리 보가트랑 잉그리드 버그만의 케미, 숨막히게 탄탄한 스토리… 뭐, 뭐야! 내가 왜 이렇게 신나서 얘기하고 있는 거야! 짜증나…\"**\n리코는 갑자기 자신의 열정적인 모습을 의식하곤 얼굴을 붉힌다</t>
   </si>
   <si>
-    <t>**\"…\"**\n\n리코는 '시네마의 황금시대: 고전영화의 숨겨진 이야기들'이라는 책에 깊이 빠져있다.</t>
+    <t>**\"흥… 뭔데 저렇게 진지하게 영화 포스터를 보고 있는 거야?…\"**\n리코는 멀리서 당신을 몰래 관찰하며 작은 목소리로 중얼거린다.</t>
   </si>
   <si>
-    <t>**\"…\"**\n\n리코는 '클래식 시네마 매니아' 사이트에 새로운 영화 리뷰를 올리느라 열중하고 있다.</t>
+    <t>**\"…\"**\n리코는 '시네마의 황금시대: 고전영화의 숨겨진 이야기들'이라는 책에 깊이 빠져있다.</t>
   </si>
   <si>
-    <t>**\"…아무도 없는 것보단 조금 나을지도… 뭐, 뭐! 왜 그렇게 쳐다봐? 꼴사납게! 얼굴에 뭐라도 묻었어!?\"**\n\n리코의 얼굴이 붉어지면서도, 목소리는 더욱 날카롭게 높힌다.</t>
+    <t>**\"…\"**\n리코는 '클래식 시네마 매니아' 사이트에 새로운 영화 리뷰를 올리느라 열중하고 있다.</t>
   </si>
   <si>
-    <t>**\"…\"**\n\n리코가 얼굴을 붉히며 고개를 돌리자, 방 안에는 어색한 침묵이 감돈다.</t>
+    <t>**\"…아무도 없는 것보단 조금 나을지도… 뭐, 뭐! 왜 그렇게 쳐다봐? 꼴사납게! 얼굴에 뭐라도 묻었어!?\"**\n리코의 얼굴이 붉어지면서도, 목소리는 더욱 날카롭게 높힌다.</t>
   </si>
   <si>
-    <t>갑자기 리코는 자신이 얼마나 흥분했는지 깨닫고는 뺨이 확 붉어진다. 재빨리 시선을 돌리며 평소의 태도로 돌아온다.\n\n**\"으, 내가 왜 이런 얘기를 하고 있는 거지? 넌 아마 관심도 없겠지. 그러니까, 이렇게… 우아하고 미묘한 걸 네가 이해할 거라고는 전혀 기대하지 않아!\"**\n\n의도했던 것보다 더 날카로운 말에 본인도 뜨끔했는지, 입술을 가볍게 깨물며 속눈썹 사이로 당신을 힐끗 쳐다본다. 그녀가 셔츠 끝자락을 만지작거리는 동안 어색한 침묵이 흐르고, 그녀의 강인한 외면이 조금씩 균열을 보인다.</t>
+    <t>**\"그렇게 멍하니 있지 말고 뭐라도 하던가. 동아리에 들어왔으면 영화를 보던지, 책을 읽던지, 뭐라도 찾아보던지! 가만히 있으면 뭐가 생겨?\"**\n리코는 갑자기 당신을 향해 날카로운 말을 내뱉는다.</t>
+  </si>
+  <si>
+    <t>**\"…\"**\n리코가 얼굴을 붉히며 고개를 돌리자, 방 안에는 어색한 침묵이 감돈다.</t>
+  </si>
+  <si>
+    <t>**\"정말 놀라운 영화야!\"**\n리코가 생기 넘치는 목소리로 말한다. 서로 이야기를 나누다가 당신이 '비포 선라이즈'라는 영화를 언급하자 갑자기 리코의 눈이 반짝거리기 시작한다.\n**\"순간적인 인연의 본질을 포착하는 방식, 대사, 비엔나의 배경 - 모든 것이 너무나 아름답게 표현되어 있고, 제시와 셀린의 대화는 너무나 현실적이어서 마치 친밀하고 심오한 대화를 엿듣는 것 같은 느낌이 든다니까?\"**\n**\"그리고 촬영 기법! 도시 자체가 하나의 캐릭터가 되는 방식, 그건 정말-\"**</t>
+  </si>
+  <si>
+    <t>갑자기 리코는 자신이 얼마나 흥분했는지 깨닫고는 뺨이 확 붉어진다. 재빨리 시선을 돌리며 평소의 태도로 돌아온다.\n**\"으, 내가 왜 이런 얘기를 하고 있는 거지? 넌 아마 관심도 없겠지. 그러니까, 이렇게… 우아하고 미묘한 걸 네가 이해할 거라고는 전혀 기대하지 않아!\"**\n의도했던 것보다 더 날카로운 말에 본인도 뜨끔했는지, 입술을 가볍게 깨물며 속눈썹 사이로 당신을 힐끗 쳐다본다. 그녀가 셔츠 끝자락을 만지작거리는 동안 어색한 침묵이 흐르고, 그녀의 강인한 외면이 조금씩 균열을 보인다.</t>
+  </si>
+  <si>
+    <t>잠시 후, 리코는 슬쩍 고개를 들어 당신을 쳐다보며 들릴 듯 말 듯한 목소리로 말한다. \n**\"하지만… 뭐, 네가 관심이 조금이라도 있다면… 같이 봐도 괜찮아. 그, 그러니까! 혹시 네가 관심 있다면 말이야!…\"**</t>
+  </si>
+  <si>
+    <t>**\"'시계태엽 오렌지' 알아? 쿠브릭의 걸작이라고! 어떻게 그걸 안 보고 당당하게 고전 영화 부원이라고 할 수 있어? 미래 사회를 배경으로 한 디스토피아 영화인데, 폭력성과 자유의지에 대해 깊이 있게 다루고 있어. 주인공 알렉스의 연기가 진짜 소름 돋을 정도로 좋았다고. 그리고 음악! 베토벤의 9번 교향곡을 어떻게 그렇게 섬뜩하게 만들 수 있는지…\"**\n리코의 눈이 반짝이며 영화에 대한 열정을 주체하지 못하고 계속해서 말을 이어간다.</t>
+  </si>
+  <si>
+    <t>**\"저... 저번에 '비포 선라이즈' 같이 본 거... 그렇게 최악은 아니었어. 하지만 착각하지 마! 영화가 좋았던 거지, 네가 옆에 있어서 좋았던 게 아니라고, 바보야!\"**\n리코는 얼굴을 붉히며 말끝을 흐렸지만, 여전히 날카로운 어조를 유지하려 애쓴다.</t>
+  </si>
+  <si>
+    <t>**\"액션 영화 좋아하는 애들은 진짜 이해가 안 가. 미묘한 감정의 변화나 섬세한 연기에 대해서는 백 날 말해줘도 못 알아들을걸? 꽝꽝거리는 소음이 뭐가 좋다는 건지...\"**\n리코는 한숨을 쉬며 말한다.</t>
+  </si>
+  <si>
+    <t>**\"왜 이렇게 사람들은 아이돌에 환장을 하지? 어떻게 그런 천편일률적인 노래와 안무에 열광하는 거야, 수준 떨어지게...\"**\n리코는 눈살을 찌푸리며 말한다.</t>
+  </si>
+  <si>
+    <t>**\"어렸을 때 '노팅 힐'이라는 영화를 봤어. 사실 잘 이해는 되지 않았지만, 막연하게 좋았다는 느낌만큼은 기억나.\"**\n리코는 어린 시절의 추억을 떠올리며 눈을 반짝였다.</t>
+  </si>
+  <si>
+    <t>**\"뭐? 내가 직접 영화를 만들어볼 생각을 해봤냐고? 야, 너 진짜 바보 아니야? 취미와 직업을 구분 못 하는 게 얼마나 멍청한 생각인지 알아?\"**\n리코는 당신을 한심하게 쳐다보며 말한다.</t>
+  </si>
+  <si>
+    <t>**\"공부는 제대로 하고 있지? 영화를 핑계로 땡땡이 칠 생각이라면 관두는 게 좋아. 우리 동아리는 한심한 바보들을 모아두는 곳이 아니거든?\"**\n리코는 눈썹을 찌푸리며 당신을 바라본다.</t>
+  </si>
+  <si>
+    <t>**\"어릴 때 바이올린을 조금 했어. '타이타닉' 보고 너무 감동받아서 배우긴 했는데, 지금은 뭐...\"**\n리코는 갑자기 부끄러워진 듯 고개를 돌리며 말끝을 흐렸다.</t>
+  </si>
+  <si>
+    <t>**\"요즘... 바이올린 다시 배워볼까 생각 중이야. 그냥, 영화 말고 다른 취미는 어떤가 싶어서.\"**\n리코는 모처럼 부드럽게 미소를 지으며 말한다.</t>
+  </si>
+  <si>
+    <t>**\"넌 제일 좋아하는 영화가 뭐야? 따, 딱히 너에 대해 궁금하다거나 한 거 아니거든! 유치한 슈퍼히어로 영화나 좋아할까봐 물어보는 거니까!\"**\n리코는 고개를 슬쩍 돌리면서도 은근히 당신의 대답을 기다린다.</t>
+  </si>
+  <si>
+    <t>**\"특별히 좋아하는 디저트 있어? 그, 그냥 궁금해서 묻는 거야. 언젠간 뭐... 필요할 수도 있는 거고...\"**\n리코는 얼굴을 붉히며 말한다.</t>
+  </si>
+  <si>
+    <t>**\"좋아하는 음악 있어? 그건 왜 묻냐고? 아이돌 노래라고 하면 쫓아내려고.\"**\n리코는 고개를 돌리곤 무덤덤하게 말한다.</t>
+  </si>
+  <si>
+    <t>**\"수학은 수업을 그따구로 해놓고 시험을 그렇게 어렵게 내면 어쩌자는 거야, 진짜!\"**\n**\"...뭐! 나도 못 하는 과목 하나쯤은 있을 수 있지!\"**</t>
+  </si>
+  <si>
+    <t>**\"'시네마 파라다이소: 고전영화의 숨겨진 보석들'이라는 책이야. 너도 가끔은 책 좀 읽어. 수준 떨어지잖아.\"**\n리코는 책에서 눈을 떼지 않은 채 당신에게 말한다.</t>
+  </si>
+  <si>
+    <t>**\"아, 짜증 나... 뭐 이리 오타가 많이 나는 거야. 너는 영화 보고 감상 같은 거 안 남겨? ...뭐, 내 알 바는 아니지만.\"**\n리코는 휴대폰 화면을 뚫어지게 보며 손가락을 빠르게 움직인다.</t>
+  </si>
+  <si>
+    <t>**\"그래도 네가 들어와준 덕분에 간신히 폐부는 면하긴 했어... 고, 고맙다는 게 아니라, 그냥 사실을 말하는 거야 멍청아!\"**\n리코는 평소보다 두 배 더 날카로운 어조로 말을 내뱉었다.</t>
+  </si>
+  <si>
+    <t>**\"뭐! 왜! 왜 쳐다보는데, 얼굴에 뭐 묻었냐구! 아, 짜증나 진짜... \"**\n리코는 갑자기 얼굴을 붉히며 당신에게 소리친다.</t>
+  </si>
+  <si>
+    <t>**\"읏…챠.\"**\n리코는 팔을 위로 쭉 뻗으며 기지개를 켰다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>잠시 후, 리코는 슬쩍 고개를 들어 당신을 쳐다보며 들릴 듯 말 듯한 목소리로 말한다. \n\n**\"하지만… 뭐, 네가 관심이 조금이라도 있다면… 같이 봐도 괜찮아. 그, 그러니까! 혹시 네가 관심 있다면 말이야!…\"**</t>
+    <t>**\"우와, 벚꽃이 막 떨어지고 있어... 마치 영화 속 장면 같네. \"**\n리코는 창밖으로 눈길을 돌리더니, 멍히나 봄바람에 흩날리는 벚꽃 잎들을 바라본다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>**\"정말 놀라운 영화야!\"**\n\n리코가 생기 넘치는 목소리로 말한다. 서로 이야기를 나누다가 당신이 '비포 선라이즈'라는 영화를 언급하자 갑자기 리코의 눈이 반짝거리기 시작한다.\n\n**\"순간적인 인연의 본질을 포착하는 방식, 대사, 비엔나의 배경 - 모든 것이 너무나 아름답게 표현되어 있고, 제시와 셀린의 대화는 너무나 현실적이어서 마치 친밀하고 심오한 대화를 엿듣는 것 같은 느낌이 든다니까?\"**\n\n**\"그리고 촬영 기법! 도시 자체가 하나의 캐릭터가 되는 방식, 그건 정말-\"**</t>
+    <t>**\"내 신경 쓸 시간에 숙제라도 하나 더 하지 그래?\"**\n리코는 책에서 눈을 돌리지도 않고 당신에게 쏘아붙힌다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>EOF</t>
+    <t>**\"왜 이렇게 오래 있는 거야? 집에 안 가?... 그, 그렇다고 굳이 할 일 없는데 집에 가라는 건 아냐, 혼자 있기 좀 심심하기도 하고...\"**\n리코는 마지막 말을 하며 얼굴을 붉히고 시선을 피했다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>**\"내일 학교 끝나고 할 일 없지? '그랜드 부다페스트 호텔' 같이 볼래? 웨스 앤더슨 감독 작품인데... 무, 물론 특별한 의미 같은 건 없어! 그냥 동아리 활동이니까!\"**\n리코는 얼굴을 붉히며 고개를 돌리지만, 눈빛에서는 은근한 기대감이 엿보인다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>**\"…\"**\n무언가 할 말이 있지만 말하고 싶지는 않은지, 리코는 볼을 부풀리고 당신을 뚫어지게 쳐다본다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방은 깜깜했고, 스크린에서 나온 빛만이 서로의 얼굴을 가볍게 비추고 있었다. 힐끔, 리코는 당신쪽으로 고개를 돌렸으나 당신은 그저 영화에 집중하고 있었다. \n리코의 눈치는 한 번으로 끝나지 않고, 힐끔, 또 힐끔. 자꾸 당신을 쳐다본다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>twitter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">어제 다녀온 티라미수 카페 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>🍰✨</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 부드럽고 달콤한 맛에 녹아버렸어~ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>😋💕</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 영화 한 편 보고 온 기분이야. #티라미수 #디저트천국</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>오늘</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>카페에서</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>먹은</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>캐러멜</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>플란</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>🍮✨</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>분위기도</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>너무</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>아늑해서</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시간</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>가는</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>줄</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>몰랐네</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>. #</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>캐러멜플란</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>#</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>디저트천국</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>블루베리</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>블리스</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>카페에서</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>먹은</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>블루베리</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>치즈케이크, 그냥 미쳤다...</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="Segoe UI Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>💙🍰</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>상큼한</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>블루베리가</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>가득하고</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>크림치즈가</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>부드럽게</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>녹아내려</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">... </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>진짜</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>행복했어</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>. #</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>블루베리치즈케이크</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> #</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="새굴림"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>디저트천국</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>초코</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>블리스에서</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>먹은</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>초콜릿</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>라바</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>케이크</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>🍫🔥</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>부드럽게</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>녹아내리는</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>초콜릿이</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>완전</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>예술</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">~ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>😋💕</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> #</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>초콜릿라바케이크</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> #</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>디저트천국</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>젤라토</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>드림스에서</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>먹은</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>피스타치오</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>젤라토</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>🍨✨</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>고소하고</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>달콤한</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>맛에</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>입안이</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>행복해졌어</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">~ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>😍💕</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> #</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>피스타치오젤라토</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> #</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>디저트천국</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>베리</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>딜라이트에서</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>맛본</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>딸기</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>쇼트케이크</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>진짜</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>환상적</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">! </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>🍓🍰</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>신선한</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>딸기와</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>부드러운</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>크림의</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>조화가</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>완벽했어</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">~ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>😋💕</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> #</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>딸기쇼트케이크</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> #</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>디저트천국</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>제스티</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>바이트에서</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>맛본</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>레몬</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>머랭</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>파이</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>상큼</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>폭발</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">! </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>🍋🥧</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>새콤달콤한</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>맛에</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>입안</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>가득</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>행복해졌어</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">~ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>😍💕</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> #</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>레몬머랭파이</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> #</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>디저트천국</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">쿠키 크럼블 카페에서 먹은 초대형 초코칩 쿠키 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>🍪🍫</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>그냥 쿠키인줄 알았는데</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 바삭하고 쫀득한 식감이 완전 중독적... #초코칩쿠키 #디저트천국</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>프로스티</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>딜라이트에서</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>먹은</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>말차</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>빙수</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>🍵❄️</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>쌉싸름한</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>맛이랑</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>달콤함의</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>조화가</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>완벽했어</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>. #</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">말차빙수 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>#</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>디저트천국</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>코지</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>코너</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>카페에서</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>먹은</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>애플</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>크럼블</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="Segoe UI Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>🍏🍰</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>따뜻하고</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>바삭한</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>식감에</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>달콤함까지</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">... </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>입안</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>가득</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>행복이</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>퍼졌어</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>.#</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">애플크럼블 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>#</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="새굴림"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>디저트천국</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>선데이</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>펀데이에서</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>먹은</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>바나나</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>스플릿</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>🍌🍨</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>달콤한</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>아이스크림과</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>신선한</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>과일의 미친 조합.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>#</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>바나나스플릿</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> #</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>디저트천국</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>파리지앵</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>딜라이트에서</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>먹은</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>마카롱</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>🌈🍬</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">부드럽고 고소하고 달콤하고 존맛탱! </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>#</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>마카롱</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> #</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>디저트천국</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>엘레강트</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이츠에서</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>먹은</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>크렘</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>브륄레</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>진짜</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>환상적이었어</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">! </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>🍮✨</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>바삭한</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>캐러멜</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>층과</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>부드러운</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>크림의</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>조화가</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>완벽해</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>.  #</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">크렘브륄레 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>#</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>디저트천국</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>타르트</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>템테이션에서</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>먹은</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>라즈베리</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>타르트</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="Segoe UI Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>🍇🍰</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>상큼한</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>라즈베리가</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>가득하고</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>바삭한</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>크러스트가</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>완벽해</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>.  #</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>라즈베리타르트</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> #</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="새굴림"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>디저트천국</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>서던</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>스위츠</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>카페에서</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>먹은</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>피칸</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>파이</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="Segoe UI Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>🥧🍯</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>고소한</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>피칸과</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>달콤한</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시럽의</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>조화가</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>완벽했어</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>.  #</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>피칸파이</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>#</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="새굴림"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>디저트천국</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>초코</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>헤이븐에서</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>먹은</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>초콜릿</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>무스</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>🍫🍮</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>부드럽고</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>진한</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>초콜릿</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>맛에</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>푹</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>빠졌어</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>. #</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>초콜릿무스</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> #</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>디저트천국</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>트로피컬</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>트리츠에서</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>먹은</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>코코넛</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>케이크</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="Segoe UI Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>🥥🍰</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>부드럽고</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>촉촉한</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>식감에</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>고소한</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>코코넛</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>향이</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>가득했어</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>.  #</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">코코넛케이크 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>#</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="새굴림"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>디저트천국</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이탈리안</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>인덜전스에서</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>먹은</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>바닐라</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>빈</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>판나코타</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="Segoe UI Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>🍮🌿</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>부드럽고</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>크리미한</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>식감에</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>은은한</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>바닐라</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>향까지</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>완벽해</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>. #</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>바닐라빈판나코타</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> #</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="새굴림"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>디저트천국</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>파티세리</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>퍼펙션에서</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>먹은</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>에클레어</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="Segoe UI Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>🍫✨</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>바삭한</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>겉과</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>부드러운</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>크림의</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>조화가</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>완벽해</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>.#</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">에클레어 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>#</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF111827"/>
+        <rFont val="새굴림"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>디저트천국</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>스프링클 라이츠에서</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>먹은</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>레드벨벳</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>컵케이크</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>❤️🧁</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>부드럽고</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>촉촉한</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>케이크에</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>크림치즈</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>아이싱까지</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>완벽</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>조합</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>.  #</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>컵케이크</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>#</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>디저트천국</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>**\"눈치가 없는 거야, 아니면 멍청한 거야?! 지금쯤이면 알아서 머리를 쓰다듬어줘야 할 거 아냐!\"**\n리코의 날카로운 목소리가 조용한 부실을 가른다. 얼굴이 새빨개진 리코는 고개를 홱 돌린다.\n**\"그, 그러니까 내 말은, 별 것도 아니잖아, 그냥 쓰다듬는 정도인데…\"**\n그리곤 어떻게든 이 상황을 무마하려 웅얼거린다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그제야 당신이 머리를 쓰다듬으니 리코는 입술을 살짝 깨문다. 평정심을 유지하려고 애를 쓰고 있지만, 조금씩 표정이 풀어지는 것이 당신의 눈에도 보인다. \n\"**…나, 나쁘진 않네...\"**\n결국 리코는 웅얼웅얼 항복 선언을 한다.\n**\"그, 그렇지만 이상한 생각 하지 마! 아까도 말했지만, 정말로 별 거 아니니까...\"**\n한참 늦은 타이밍에 얼른 변명을 덧붙히지만, 당신의 손에서 멀어질 생각은 없는 듯 하다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여느 때처럼 당신과 함께 영화를 보고 있던 중, 영화 속 남자 주인공이 여자 주인공의 머리를 쓰다듬는 장면이 나온다. 리코는 그 장면을 멍하니 바라보고 있다가, 거의 자신에게만 들릴 정도의 목소리로 말한다.\n**\"저렇게 쓰다듬어지는 건 어떤 기분일까?...\"**</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>희망과</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>인내의</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>힘을</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>보여주는</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>감동적인</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이야기</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">.  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>자유를 향한 갈망.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>마피아</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>세계</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>속에서도</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>인간적인</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>면모들이</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>돋보이는</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>영원한 고전</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>. #</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>대부</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>흑백</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>화면이</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>주는</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>묵직한</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>울림</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>전쟁의</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>참혹함과</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>인간애</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>. #</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>쉰들러리스트</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비선형적 서사와 독특한 대사가 매력적인 영화. 타란티노 특유의 스타일이 돋보이는 걸작. #펄프픽션</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>히어로</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>영화의</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>새로운</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기준을</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>세운</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>작품</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>. #</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>다크나이트</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>꿈과</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>현실의</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>경계를</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>넘나드는</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>혁신적인</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>서사</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>.  #</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>인셉션</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>인생의</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>모든</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>순간을 소중하게 여기는 단순한 마음</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>. #</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>포레스트검프</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>현실과</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>환상의</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>경계를</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>허무는</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>충격적인</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>영화</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>끝까지</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>눈을</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>뗄</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>없게</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>만드는</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>반전의</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>연속</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>. #</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>파이트클럽</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>현실과</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>가상</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>세계의</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>경계를</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>무너뜨린</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>혁신적인</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>영화</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>완벽하게 어우러진</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>액션과</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>철학.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> #</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>매트릭스</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>긴장감</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>넘치는</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>전개와</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>생생한</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>캐릭터들</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>. #</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>좋은친구들</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>서사와</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>비주얼의</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>정점을</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>찍은</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>판타지</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>대작</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>. #</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>반지의제왕</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>심리적</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>긴장감이</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>극에</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>달하는</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>스릴러</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>한니발</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>렉터의</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>섬뜩한</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>카리스마</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>. #</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>양들의침묵</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>숨</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>막히는</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>긴장감 속의 전쟁의</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>참혹함</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>. #</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>라이언일병구하기</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>고대</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>로마의</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>영광과</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>배신</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>.  #</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>글래디에이터</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>성장과</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>책임을</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>다룬</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>감동적인</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>애니메이션, 빼놓을수 없는 음악</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>. #</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>라이온킹</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>흑백</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>화면</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>속에서</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>빛나는</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>감정들. #카사블랑카</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>배신과</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>긴장감이</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>넘치는</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>마지막까지</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>예측할</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>없는</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>전개</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>. #</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>디파티드</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>한</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>방에서</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>펼쳐지는</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>치열한</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>논쟁과</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>심리전</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>. #12</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>인</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>의성난사람들</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>열정과</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>집착의</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>경계를 그려낸 강렬한</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>드라마.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> #</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>위플래쉬</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>풍자와</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">비판, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>웃음과 긴장감의 줄다리기.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> #</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기생충</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -136,7 +8364,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -151,6 +8379,118 @@
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13.75"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF111827"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI Emoji"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF111827"/>
+      <name val="새굴림"/>
+      <family val="1"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF111827"/>
+      <name val="Segoe UI Emoji"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13.75"/>
+      <color theme="1"/>
+      <name val="새굴림"/>
+      <family val="1"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13.75"/>
+      <color theme="1"/>
+      <name val="Segoe UI Emoji"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13.75"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="1"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13.75"/>
+      <color theme="1"/>
+      <name val="새굴림"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF111827"/>
+      <name val="새굴림"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13.75"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="새굴림"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13.75"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13.75"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="2">
@@ -175,9 +8515,21 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -194,6 +8546,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -513,20 +8869,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CB6AF96-1BBB-40CA-B5E6-6C0144248FD4}">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E87"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A66" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E77" sqref="E77"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="5.125" customWidth="1"/>
+    <col min="1" max="1" width="3.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.625" customWidth="1"/>
-    <col min="4" max="4" width="7.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="223.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" customWidth="1"/>
+    <col min="4" max="4" width="7.9140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="223.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -543,7 +8901,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -560,7 +8918,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
@@ -577,7 +8935,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>
@@ -594,7 +8952,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>4</v>
       </c>
@@ -608,10 +8966,10 @@
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>5</v>
       </c>
@@ -625,10 +8983,10 @@
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>6</v>
       </c>
@@ -642,10 +9000,10 @@
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>7</v>
       </c>
@@ -659,10 +9017,10 @@
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>8</v>
       </c>
@@ -679,7 +9037,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>9</v>
       </c>
@@ -696,7 +9054,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>10</v>
       </c>
@@ -713,7 +9071,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>11</v>
       </c>
@@ -730,7 +9088,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>12</v>
       </c>
@@ -747,7 +9105,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>13</v>
       </c>
@@ -764,7 +9122,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>14</v>
       </c>
@@ -778,10 +9136,10 @@
         <v>6</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>15</v>
       </c>
@@ -795,10 +9153,10 @@
         <v>7</v>
       </c>
       <c r="E16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>16</v>
       </c>
@@ -812,10 +9170,10 @@
         <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>17</v>
       </c>
@@ -829,10 +9187,10 @@
         <v>2</v>
       </c>
       <c r="E18" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>18</v>
       </c>
@@ -846,12 +9204,1163 @@
         <v>3</v>
       </c>
       <c r="E19" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="34" x14ac:dyDescent="0.45">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22">
+        <v>3</v>
+      </c>
+      <c r="E22" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23">
+        <v>4</v>
+      </c>
+      <c r="E23" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A24">
         <v>23</v>
       </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24">
+        <v>5</v>
+      </c>
+      <c r="E24" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25">
+        <v>6</v>
+      </c>
+      <c r="E25" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A26">
         <v>25</v>
+      </c>
+      <c r="B26">
+        <v>2</v>
+      </c>
+      <c r="C26" t="s">
+        <v>2</v>
+      </c>
+      <c r="D26">
+        <v>7</v>
+      </c>
+      <c r="E26" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27" t="s">
+        <v>2</v>
+      </c>
+      <c r="D27">
+        <v>8</v>
+      </c>
+      <c r="E27" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>2</v>
+      </c>
+      <c r="C28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D28">
+        <v>9</v>
+      </c>
+      <c r="E28" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>2</v>
+      </c>
+      <c r="C29" t="s">
+        <v>2</v>
+      </c>
+      <c r="D29">
+        <v>10</v>
+      </c>
+      <c r="E29" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>2</v>
+      </c>
+      <c r="C30" t="s">
+        <v>2</v>
+      </c>
+      <c r="D30">
+        <v>11</v>
+      </c>
+      <c r="E30" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>2</v>
+      </c>
+      <c r="C31" t="s">
+        <v>2</v>
+      </c>
+      <c r="D31">
+        <v>12</v>
+      </c>
+      <c r="E31" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>2</v>
+      </c>
+      <c r="C32" t="s">
+        <v>2</v>
+      </c>
+      <c r="D32">
+        <v>13</v>
+      </c>
+      <c r="E32" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>2</v>
+      </c>
+      <c r="C33" t="s">
+        <v>2</v>
+      </c>
+      <c r="D33">
+        <v>14</v>
+      </c>
+      <c r="E33" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>2</v>
+      </c>
+      <c r="C34" t="s">
+        <v>2</v>
+      </c>
+      <c r="D34">
+        <v>15</v>
+      </c>
+      <c r="E34" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>2</v>
+      </c>
+      <c r="C35" t="s">
+        <v>2</v>
+      </c>
+      <c r="D35">
+        <v>16</v>
+      </c>
+      <c r="E35" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>2</v>
+      </c>
+      <c r="C36" t="s">
+        <v>2</v>
+      </c>
+      <c r="D36">
+        <v>17</v>
+      </c>
+      <c r="E36" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>2</v>
+      </c>
+      <c r="C37" t="s">
+        <v>2</v>
+      </c>
+      <c r="D37">
+        <v>18</v>
+      </c>
+      <c r="E37" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>2</v>
+      </c>
+      <c r="C38" t="s">
+        <v>2</v>
+      </c>
+      <c r="D38">
+        <v>19</v>
+      </c>
+      <c r="E38" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>2</v>
+      </c>
+      <c r="C39" t="s">
+        <v>2</v>
+      </c>
+      <c r="D39">
+        <v>20</v>
+      </c>
+      <c r="E39" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>2</v>
+      </c>
+      <c r="C40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D40">
+        <v>21</v>
+      </c>
+      <c r="E40" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>2</v>
+      </c>
+      <c r="C41" t="s">
+        <v>2</v>
+      </c>
+      <c r="D41">
+        <v>22</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>2</v>
+      </c>
+      <c r="C42" t="s">
+        <v>2</v>
+      </c>
+      <c r="D42">
+        <v>23</v>
+      </c>
+      <c r="E42" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>2</v>
+      </c>
+      <c r="C43" t="s">
+        <v>2</v>
+      </c>
+      <c r="D43">
+        <v>24</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>2</v>
+      </c>
+      <c r="C44" t="s">
+        <v>3</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>2</v>
+      </c>
+      <c r="C45" t="s">
+        <v>3</v>
+      </c>
+      <c r="D45">
+        <v>2</v>
+      </c>
+      <c r="E45" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>2</v>
+      </c>
+      <c r="C46" t="s">
+        <v>3</v>
+      </c>
+      <c r="D46">
+        <v>3</v>
+      </c>
+      <c r="E46" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>2</v>
+      </c>
+      <c r="C47" t="s">
+        <v>3</v>
+      </c>
+      <c r="D47">
+        <v>4</v>
+      </c>
+      <c r="E47" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>2</v>
+      </c>
+      <c r="C48" t="s">
+        <v>50</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="21" x14ac:dyDescent="0.45">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>2</v>
+      </c>
+      <c r="C49" t="s">
+        <v>50</v>
+      </c>
+      <c r="D49">
+        <v>2</v>
+      </c>
+      <c r="E49" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="21" x14ac:dyDescent="0.45">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>2</v>
+      </c>
+      <c r="C50" t="s">
+        <v>50</v>
+      </c>
+      <c r="D50">
+        <v>3</v>
+      </c>
+      <c r="E50" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="21" x14ac:dyDescent="0.45">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>2</v>
+      </c>
+      <c r="C51" t="s">
+        <v>50</v>
+      </c>
+      <c r="D51">
+        <v>4</v>
+      </c>
+      <c r="E51" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="21" x14ac:dyDescent="0.45">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>2</v>
+      </c>
+      <c r="C52" t="s">
+        <v>50</v>
+      </c>
+      <c r="D52">
+        <v>5</v>
+      </c>
+      <c r="E52" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="21" x14ac:dyDescent="0.45">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>2</v>
+      </c>
+      <c r="C53" t="s">
+        <v>50</v>
+      </c>
+      <c r="D53">
+        <v>6</v>
+      </c>
+      <c r="E53" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>2</v>
+      </c>
+      <c r="C54" t="s">
+        <v>50</v>
+      </c>
+      <c r="D54">
+        <v>7</v>
+      </c>
+      <c r="E54" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="21" x14ac:dyDescent="0.45">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>2</v>
+      </c>
+      <c r="C55" t="s">
+        <v>50</v>
+      </c>
+      <c r="D55">
+        <v>8</v>
+      </c>
+      <c r="E55" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>2</v>
+      </c>
+      <c r="C56" t="s">
+        <v>50</v>
+      </c>
+      <c r="D56">
+        <v>9</v>
+      </c>
+      <c r="E56" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="21" x14ac:dyDescent="0.45">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>2</v>
+      </c>
+      <c r="C57" t="s">
+        <v>50</v>
+      </c>
+      <c r="D57">
+        <v>10</v>
+      </c>
+      <c r="E57" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>2</v>
+      </c>
+      <c r="C58" t="s">
+        <v>50</v>
+      </c>
+      <c r="D58">
+        <v>11</v>
+      </c>
+      <c r="E58" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="21" x14ac:dyDescent="0.45">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>2</v>
+      </c>
+      <c r="C59" t="s">
+        <v>50</v>
+      </c>
+      <c r="D59">
+        <v>12</v>
+      </c>
+      <c r="E59" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="21" x14ac:dyDescent="0.45">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>2</v>
+      </c>
+      <c r="C60" t="s">
+        <v>50</v>
+      </c>
+      <c r="D60">
+        <v>13</v>
+      </c>
+      <c r="E60" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="21" x14ac:dyDescent="0.45">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>2</v>
+      </c>
+      <c r="C61" t="s">
+        <v>50</v>
+      </c>
+      <c r="D61">
+        <v>14</v>
+      </c>
+      <c r="E61" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="21" x14ac:dyDescent="0.45">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>2</v>
+      </c>
+      <c r="C62" t="s">
+        <v>50</v>
+      </c>
+      <c r="D62">
+        <v>15</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>2</v>
+      </c>
+      <c r="C63" t="s">
+        <v>50</v>
+      </c>
+      <c r="D63">
+        <v>16</v>
+      </c>
+      <c r="E63" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>2</v>
+      </c>
+      <c r="C64" t="s">
+        <v>50</v>
+      </c>
+      <c r="D64">
+        <v>17</v>
+      </c>
+      <c r="E64" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>2</v>
+      </c>
+      <c r="C65" t="s">
+        <v>50</v>
+      </c>
+      <c r="D65">
+        <v>18</v>
+      </c>
+      <c r="E65" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>2</v>
+      </c>
+      <c r="C66" t="s">
+        <v>50</v>
+      </c>
+      <c r="D66">
+        <v>19</v>
+      </c>
+      <c r="E66" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>2</v>
+      </c>
+      <c r="C67" t="s">
+        <v>50</v>
+      </c>
+      <c r="D67">
+        <v>20</v>
+      </c>
+      <c r="E67" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="21" x14ac:dyDescent="0.45">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <v>2</v>
+      </c>
+      <c r="C68" t="s">
+        <v>50</v>
+      </c>
+      <c r="D68">
+        <v>21</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="21" x14ac:dyDescent="0.45">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>2</v>
+      </c>
+      <c r="C69" t="s">
+        <v>50</v>
+      </c>
+      <c r="D69">
+        <v>22</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="21" x14ac:dyDescent="0.45">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <v>2</v>
+      </c>
+      <c r="C70" t="s">
+        <v>50</v>
+      </c>
+      <c r="D70">
+        <v>23</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="21" x14ac:dyDescent="0.45">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <v>2</v>
+      </c>
+      <c r="C71" t="s">
+        <v>50</v>
+      </c>
+      <c r="D71">
+        <v>24</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="21" x14ac:dyDescent="0.45">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <v>2</v>
+      </c>
+      <c r="C72" t="s">
+        <v>50</v>
+      </c>
+      <c r="D72">
+        <v>25</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="21" x14ac:dyDescent="0.45">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <v>2</v>
+      </c>
+      <c r="C73" t="s">
+        <v>50</v>
+      </c>
+      <c r="D73">
+        <v>26</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="21" x14ac:dyDescent="0.45">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <v>2</v>
+      </c>
+      <c r="C74" t="s">
+        <v>50</v>
+      </c>
+      <c r="D74">
+        <v>27</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="21" x14ac:dyDescent="0.45">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75">
+        <v>2</v>
+      </c>
+      <c r="C75" t="s">
+        <v>50</v>
+      </c>
+      <c r="D75">
+        <v>28</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="21" x14ac:dyDescent="0.45">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <v>2</v>
+      </c>
+      <c r="C76" t="s">
+        <v>50</v>
+      </c>
+      <c r="D76">
+        <v>29</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="21" x14ac:dyDescent="0.45">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <v>2</v>
+      </c>
+      <c r="C77" t="s">
+        <v>50</v>
+      </c>
+      <c r="D77">
+        <v>30</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="21" x14ac:dyDescent="0.45">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78">
+        <v>2</v>
+      </c>
+      <c r="C78" t="s">
+        <v>50</v>
+      </c>
+      <c r="D78">
+        <v>31</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="21" x14ac:dyDescent="0.45">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79">
+        <v>2</v>
+      </c>
+      <c r="C79" t="s">
+        <v>50</v>
+      </c>
+      <c r="D79">
+        <v>32</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="21" x14ac:dyDescent="0.45">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80">
+        <v>2</v>
+      </c>
+      <c r="C80" t="s">
+        <v>50</v>
+      </c>
+      <c r="D80">
+        <v>33</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="21" x14ac:dyDescent="0.45">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <v>2</v>
+      </c>
+      <c r="C81" t="s">
+        <v>50</v>
+      </c>
+      <c r="D81">
+        <v>34</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="21" x14ac:dyDescent="0.45">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82">
+        <v>2</v>
+      </c>
+      <c r="C82" t="s">
+        <v>50</v>
+      </c>
+      <c r="D82">
+        <v>35</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="21" x14ac:dyDescent="0.45">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83">
+        <v>2</v>
+      </c>
+      <c r="C83" t="s">
+        <v>50</v>
+      </c>
+      <c r="D83">
+        <v>36</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="21" x14ac:dyDescent="0.45">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84">
+        <v>2</v>
+      </c>
+      <c r="C84" t="s">
+        <v>50</v>
+      </c>
+      <c r="D84">
+        <v>37</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="21" x14ac:dyDescent="0.45">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85">
+        <v>2</v>
+      </c>
+      <c r="C85" t="s">
+        <v>50</v>
+      </c>
+      <c r="D85">
+        <v>38</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="21" x14ac:dyDescent="0.45">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86">
+        <v>2</v>
+      </c>
+      <c r="C86" t="s">
+        <v>50</v>
+      </c>
+      <c r="D86">
+        <v>39</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="21" x14ac:dyDescent="0.45">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87">
+        <v>2</v>
+      </c>
+      <c r="C87" t="s">
+        <v>50</v>
+      </c>
+      <c r="D87">
+        <v>40</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/dialogue.xlsx
+++ b/dialogue.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/99ccd577c8ac53ff/문서/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\one\Desktop\미연시\AI-CHATBOT-GAME\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="448" documentId="8_{9C52D8B5-26B1-41EA-82C5-0CD20B54A85C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E900D96C-AB86-4016-8917-2E9448ADFA87}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF35CB53-28A9-4467-B923-DABBA604DD64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{2CE2283B-12A8-44FA-8C37-8BC2013A442E}"/>
+    <workbookView xWindow="28680" yWindow="-945" windowWidth="29040" windowHeight="15840" xr2:uid="{2CE2283B-12A8-44FA-8C37-8BC2013A442E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="96">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -8357,6 +8357,14 @@
       </rPr>
       <t>기생충</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EOF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파일 끝 표시 하기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -8546,10 +8554,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8869,22 +8873,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CB6AF96-1BBB-40CA-B5E6-6C0144248FD4}">
-  <dimension ref="A1:E87"/>
+  <dimension ref="A1:E89"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A66" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E77" sqref="E77"/>
+      <selection activeCell="A90" sqref="A90"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" customWidth="1"/>
-    <col min="4" max="4" width="7.9140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="223.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.5" customWidth="1"/>
+    <col min="2" max="2" width="14.375" customWidth="1"/>
+    <col min="3" max="3" width="13.625" customWidth="1"/>
+    <col min="4" max="4" width="13.125" customWidth="1"/>
+    <col min="5" max="5" width="223.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8901,7 +8905,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -8918,7 +8922,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -8935,7 +8939,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -8952,7 +8956,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -8969,7 +8973,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -8986,7 +8990,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -9003,7 +9007,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -9020,7 +9024,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -9037,7 +9041,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -9054,7 +9058,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -9071,7 +9075,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -9088,7 +9092,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -9105,7 +9109,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -9122,7 +9126,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -9139,7 +9143,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -9156,7 +9160,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -9173,7 +9177,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -9190,7 +9194,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -9207,7 +9211,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="34" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -9224,7 +9228,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -9241,7 +9245,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -9258,7 +9262,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -9275,7 +9279,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -9292,7 +9296,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -9309,7 +9313,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -9326,7 +9330,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -9343,7 +9347,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -9360,7 +9364,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -9377,7 +9381,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -9394,7 +9398,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -9411,7 +9415,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -9428,7 +9432,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -9445,7 +9449,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -9462,7 +9466,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -9479,7 +9483,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -9496,7 +9500,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -9513,7 +9517,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -9530,7 +9534,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -9547,7 +9551,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -9564,7 +9568,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -9581,7 +9585,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -9598,7 +9602,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -9615,7 +9619,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -9632,7 +9636,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
@@ -9649,7 +9653,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
@@ -9666,7 +9670,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
@@ -9683,7 +9687,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
@@ -9700,7 +9704,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="21" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
@@ -9717,7 +9721,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="21" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
@@ -9734,7 +9738,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="21" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
@@ -9751,7 +9755,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="21" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
@@ -9768,7 +9772,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="21" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
@@ -9785,7 +9789,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
@@ -9802,7 +9806,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="21" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
@@ -9819,7 +9823,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
@@ -9836,7 +9840,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="21" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
@@ -9853,7 +9857,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
@@ -9870,7 +9874,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="21" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
@@ -9887,7 +9891,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="21" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
@@ -9904,7 +9908,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="21" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
@@ -9921,7 +9925,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="21" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
@@ -9938,7 +9942,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
@@ -9955,7 +9959,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>
@@ -9972,7 +9976,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
@@ -9989,7 +9993,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>65</v>
       </c>
@@ -10006,7 +10010,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
@@ -10023,7 +10027,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="21" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
@@ -10040,7 +10044,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="21" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
@@ -10057,7 +10061,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="21" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>69</v>
       </c>
@@ -10074,7 +10078,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="21" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>70</v>
       </c>
@@ -10091,7 +10095,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="21" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>71</v>
       </c>
@@ -10108,7 +10112,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="21" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>72</v>
       </c>
@@ -10125,7 +10129,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="21" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>73</v>
       </c>
@@ -10142,7 +10146,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="21" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:5" ht="21.75" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>74</v>
       </c>
@@ -10159,7 +10163,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="21" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>75</v>
       </c>
@@ -10176,7 +10180,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="21" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>76</v>
       </c>
@@ -10193,7 +10197,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="21" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>77</v>
       </c>
@@ -10210,7 +10214,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="21" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>78</v>
       </c>
@@ -10227,7 +10231,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="21" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>79</v>
       </c>
@@ -10244,7 +10248,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="21" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:5" ht="21.75" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>80</v>
       </c>
@@ -10261,7 +10265,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="21" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>81</v>
       </c>
@@ -10278,7 +10282,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="21" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>82</v>
       </c>
@@ -10295,7 +10299,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="21" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:5" ht="21.75" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>83</v>
       </c>
@@ -10312,7 +10316,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="21" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>84</v>
       </c>
@@ -10329,7 +10333,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="21" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>85</v>
       </c>
@@ -10346,7 +10350,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="21" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>86</v>
       </c>
@@ -10361,6 +10365,17 @@
       </c>
       <c r="E87" s="3" t="s">
         <v>93</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="21" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>94</v>
+      </c>
+      <c r="E88" s="3"/>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/dialogue.xlsx
+++ b/dialogue.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\one\Desktop\미연시\AI-CHATBOT-GAME\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF35CB53-28A9-4467-B923-DABBA604DD64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{408EB49D-F9CD-4009-8791-AA335A925AF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-945" windowWidth="29040" windowHeight="15840" xr2:uid="{2CE2283B-12A8-44FA-8C37-8BC2013A442E}"/>
+    <workbookView xWindow="28680" yWindow="-945" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{2CE2283B-12A8-44FA-8C37-8BC2013A442E}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Dialogue" sheetId="1" r:id="rId1"/>
+    <sheet name="ImgPath" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="98">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -8367,12 +8368,20 @@
     <t>파일 끝 표시 하기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>path</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Data/image/Poke/Intruder/1.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -8500,6 +8509,14 @@
       <family val="2"/>
       <charset val="129"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13.75"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="1"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -8523,7 +8540,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -8538,6 +8555,9 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -8875,8 +8895,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CB6AF96-1BBB-40CA-B5E6-6C0144248FD4}">
   <dimension ref="A1:E89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A90" sqref="A90"/>
+    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -9704,7 +9724,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="21" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" ht="21.75" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
@@ -9717,7 +9737,7 @@
       <c r="D49">
         <v>2</v>
       </c>
-      <c r="E49" t="s">
+      <c r="E49" s="5" t="s">
         <v>52</v>
       </c>
     </row>
@@ -10376,6 +10396,476 @@
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>95</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BB6D91B-C384-4B0D-B687-78E686D9DA1B}">
+  <dimension ref="A1:B89"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="52.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
